--- a/document/tasks.xlsx
+++ b/document/tasks.xlsx
@@ -287,12 +287,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -316,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -324,6 +330,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1713,7 +1721,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1828,17 +1836,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>300</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>16</v>
       </c>
     </row>

--- a/document/tasks.xlsx
+++ b/document/tasks.xlsx
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,17 +1752,17 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>290</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1808,31 +1808,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>290</v>
       </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>290</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1850,17 +1850,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>290</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>8</v>
       </c>
     </row>

--- a/document/tasks.xlsx
+++ b/document/tasks.xlsx
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,45 +1766,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>290</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>290</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>280</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
     </row>
